--- a/01_planificacion/Planificacion.xlsx
+++ b/01_planificacion/Planificacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\DAM\Proyecto\programacion-proyecto-consultoria-e-sport-12c11e\01_planificacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luis\DAM\Proyecto\programacion-proyecto-consultoria-e-sport-2012bd\01_planificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9982C52-25E8-4E96-B487-79B19A658E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4554F9-CD6A-46CC-9ED9-CBC579AEB6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,21 +25,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Tarea</t>
-  </si>
-  <si>
-    <t>Miembro</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Planificacion, Lectura y analisis del enunciado previa a la creacion de diagramas, se acuerda iniciar por el Diagrama de clases.</t>
   </si>
   <si>
-    <t>Todos</t>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Objetivo Semana</t>
+  </si>
+  <si>
+    <t>Realizacion de Diagrama de Clases y Diagrama de Entidad Relacion</t>
+  </si>
+  <si>
+    <t>Ajuste Diagramas de Clases, Entidad-Relacion y Relacional. Realizacion del Diagrama de Caso de Uso</t>
+  </si>
+  <si>
+    <t>Correciones de Diagramas. Diagramas de Secuencias.Puesta a punto de la base de datos.</t>
+  </si>
+  <si>
+    <t>Creacion de Proyecto JAVA/ Empezar Programacion Java y Programacion SQL</t>
+  </si>
+  <si>
+    <t>Programacion Java y Programacion SQL</t>
+  </si>
+  <si>
+    <t>Programacion de Views</t>
+  </si>
+  <si>
+    <t>Revision de Codigo Correcion de Errores. Practicas Buenas de programacion(Refactorizacion)</t>
+  </si>
+  <si>
+    <t>Correr Pruebas/ Segunda Refactorizacion</t>
+  </si>
+  <si>
+    <t>Revision y Finalizacion de Javadocs</t>
+  </si>
+  <si>
+    <t>Creacion de Manuales y Presentacion</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>Defensa</t>
+  </si>
+  <si>
+    <t>Correcion de Errores</t>
+  </si>
+  <si>
+    <t>Finalizar "Documentacion inicial" y Ajuste de la base de Datos</t>
+  </si>
+  <si>
+    <t>Avanzar en desarrollo de Codigo Java y Finalizacion y puesta a punto de todo lo relacionado a SQL y BD</t>
+  </si>
+  <si>
+    <t>Finlización de Coddigo Java con GUI Integrada</t>
+  </si>
+  <si>
+    <t>Documentacion y Aplicación Corregida y lista para ejecutar</t>
   </si>
 </sst>
 </file>
@@ -64,12 +123,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -136,30 +207,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,52 +538,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G5"/>
+  <dimension ref="C3:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="3:18" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="3:18" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="2">
-        <v>45048</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="3:18" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="19">
         <v>3</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3" t="s">
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="3:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="1"/>
+      <c r="D11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="3:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="19">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="29">
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/01_planificacion/Planificacion.xlsx
+++ b/01_planificacion/Planificacion.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luis\DAM\Proyecto\programacion-proyecto-consultoria-e-sport-2012bd\01_planificacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ikasle\Documents\PRUEBA REMOTO\programacion-proyecto-consultoria-e-sport-2012bd\01_planificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4554F9-CD6A-46CC-9ED9-CBC579AEB6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,13 +210,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -228,36 +248,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,228 +536,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C7" s="16" t="s">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="18" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="16" t="s">
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" spans="3:18" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="19">
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="3:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="2" t="s">
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="3" t="s">
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="3:18" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="19">
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="3:18" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="3:18" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="19">
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="3:18" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="9" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9" t="s">
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="3" t="s">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="3:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="19">
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="3:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
         <v>4</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="3" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3" t="s">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="2" t="s">
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="3:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C12" s="19">
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
         <v>5</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
@@ -767,27 +784,9 @@
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="N11:P11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
